--- a/Assets/StreamingAssets/2_Canteen.xlsx
+++ b/Assets/StreamingAssets/2_Canteen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837AFF61-8DF1-7849-9298-2CA9A18CE4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C53D4F-8669-BD4E-AFB0-19ECA5E175B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
+    <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,34 +178,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It’s fine, it’s fine. I’m Lingling, the maid in charge of the canteen.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Though her clothes were coarse and plainly colored—)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Her graceful demeanor and flawless skin didn’t match the image of a servant at all.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You must be here to celebrate the master’s birthday. Sorry I don’t know your name.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ling-Shock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No need to apologize. I am Di Renjie, a traveler from Luoyang. We arrived at the manor just this afternoon.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I am Yao Chong, Master Di’s page.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Smile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am but a traveler admiring the scenery of the Gong River. Please, don’t be alarmed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ling-Pout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,18 +234,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Behind the canteen is the kitchen and storage room.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>In that case, we won’t disturb you further.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we turned to leave, I glanced back at Lingling.)&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(What a girl full of mysteries…)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nice to meet you, we are—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lai-Regular</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Yao-Sad</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +349,54 @@
   </si>
   <si>
     <t>Room-Outside9</t>
+  </si>
+  <si>
+    <t>Sir...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am but a traveler admiring the scenery of the JiuJiang River. Please, don’t be alarmed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No need to apologize. I am Judge Dee, a traveler from Luoyang.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We arrived at the manor just this afternoon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nice to meet you, we are——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It’s fine. I’m Ling, the chef of the canteen.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Even though she hurriedly hid her hands behind her back, I still caught a glimpse of the jeweled bracelet she was wearing.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(It looked quite valuable — not something that matched the image of a servant.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Yao, his student.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behind the canteen is the kitchen and storage area.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You must be here to celebrate the Lord’s birthday. Sorry I don’t know your name.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(As we turned to leave, I glanced back at Ling.)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -793,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -862,38 +870,38 @@
     </row>
     <row r="2" spans="1:16" ht="34">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="34">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -901,7 +909,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -910,7 +918,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>27</v>
@@ -928,31 +936,29 @@
         <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
@@ -961,16 +967,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="34">
@@ -990,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -999,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1013,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1022,24 +1028,28 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="34">
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="34">
@@ -1050,12 +1060,12 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1144,9 +1154,7 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
@@ -1166,31 +1174,22 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="34">
+    <row r="20" spans="1:12" ht="17">
       <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1201,16 +1200,13 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="34">
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -1218,20 +1214,13 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="34">
+    <row r="22" spans="1:12" ht="51">
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1239,16 +1228,13 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="34">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" ht="51">
       <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1256,45 +1242,45 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="2">
-        <v>500</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" ht="34">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="2">
+        <v>500</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="34">
+      <c r="A25" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" ht="17">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1311,10 +1297,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1322,43 +1308,61 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" ht="34">
+    <row r="27" spans="1:12" ht="17">
       <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" ht="17">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" ht="34">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="34">
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="34">
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1369,7 +1373,7 @@
     </row>
     <row r="30" spans="1:12" ht="34">
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -1379,14 +1383,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="34">
-      <c r="A31" t="s">
-        <v>1</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1394,34 +1392,10 @@
       <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="17">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
+    </row>
+    <row r="32" spans="1:12" ht="34">
       <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1429,19 +1403,13 @@
       <c r="E32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" ht="34">
       <c r="A33" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1452,19 +1420,31 @@
       <c r="E33" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" ht="34">
+      <c r="G33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -1475,20 +1455,22 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" ht="34">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1496,13 +1478,19 @@
       <c r="E35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="17">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="34">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -1513,77 +1501,115 @@
       <c r="E36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="17">
-      <c r="A37" t="s">
+      <c r="G36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="34">
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17">
+      <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="34">
-      <c r="B38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="34">
-      <c r="B39" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
       </c>
       <c r="E40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="34">
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="34">
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="17">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="17">
-      <c r="B42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
+      <c r="E43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17">
+      <c r="B44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/2_Canteen.xlsx
+++ b/Assets/StreamingAssets/2_Canteen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C53D4F-8669-BD4E-AFB0-19ECA5E175B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D50DC-A8D9-C84D-A11B-3D85135954E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="540" windowWidth="28100" windowHeight="15820" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="85">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,27 +328,6 @@
   <si>
     <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room-Outside3</t>
-  </si>
-  <si>
-    <t>Room-Outside4</t>
-  </si>
-  <si>
-    <t>Room-Outside5</t>
-  </si>
-  <si>
-    <t>Room-Outside6</t>
-  </si>
-  <si>
-    <t>Room-Outside7</t>
-  </si>
-  <si>
-    <t>Room-Outside8</t>
-  </si>
-  <si>
-    <t>Room-Outside9</t>
   </si>
   <si>
     <t>Sir...</t>
@@ -803,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EEC272-F350-D34D-A243-3179172F76FB}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -890,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -901,7 +880,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17">
@@ -909,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -918,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>27</v>
@@ -953,7 +932,7 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -967,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
@@ -976,7 +955,7 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1005,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1028,7 +1007,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -1189,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1220,7 +1199,7 @@
     </row>
     <row r="22" spans="1:12" ht="51">
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -1234,7 +1213,7 @@
     </row>
     <row r="23" spans="1:12" ht="51">
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>15</v>
@@ -1251,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
@@ -1277,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1297,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
@@ -1317,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
         <v>37</v>
@@ -1409,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -1528,7 +1507,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -1559,7 +1538,7 @@
     </row>
     <row r="40" spans="1:12" ht="34">
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
